--- a/data/pca/factorExposure/factorExposure_2017-10-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-10-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.0233494265158672</v>
+        <v>-0.01475291162859683</v>
       </c>
       <c r="C2">
-        <v>0.0006170051545830962</v>
+        <v>0.03838525219410955</v>
       </c>
       <c r="D2">
-        <v>0.01758015850788813</v>
+        <v>-0.02858769812856934</v>
       </c>
       <c r="E2">
-        <v>-0.01229344112189904</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03426280668172001</v>
+      </c>
+      <c r="F2">
+        <v>0.02147042253489953</v>
+      </c>
+      <c r="G2">
+        <v>0.01746196610856374</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01255919192442315</v>
+        <v>-0.05435258019272088</v>
       </c>
       <c r="C3">
-        <v>-0.05004279368182218</v>
+        <v>0.07623915004336553</v>
       </c>
       <c r="D3">
-        <v>0.02588885722376593</v>
+        <v>-0.01512484050711363</v>
       </c>
       <c r="E3">
-        <v>-0.01035051209995631</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.09969299538457466</v>
+      </c>
+      <c r="F3">
+        <v>0.04223481717350025</v>
+      </c>
+      <c r="G3">
+        <v>0.07394759060753614</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.02240211741902627</v>
+        <v>-0.05536550684228138</v>
       </c>
       <c r="C4">
-        <v>-0.01691126831163446</v>
+        <v>0.06517525203674253</v>
       </c>
       <c r="D4">
-        <v>0.06496122462075908</v>
+        <v>-0.02296070091964615</v>
       </c>
       <c r="E4">
-        <v>0.00616915993270403</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.009454067879377581</v>
+      </c>
+      <c r="F4">
+        <v>0.01289863802740168</v>
+      </c>
+      <c r="G4">
+        <v>0.04628425963252737</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0152626058800582</v>
+        <v>-0.03240639218134274</v>
       </c>
       <c r="C6">
-        <v>-0.02432053735937975</v>
+        <v>0.05320699723796405</v>
       </c>
       <c r="D6">
-        <v>0.08445515947708848</v>
+        <v>-0.01631680773165116</v>
       </c>
       <c r="E6">
-        <v>-0.01007123335365809</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.009611400897455585</v>
+      </c>
+      <c r="F6">
+        <v>0.01589884961667536</v>
+      </c>
+      <c r="G6">
+        <v>0.02487646783087348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.01063343214860521</v>
+        <v>-0.01938840820463086</v>
       </c>
       <c r="C7">
-        <v>-0.008417920487871973</v>
+        <v>0.03557913083248799</v>
       </c>
       <c r="D7">
-        <v>0.04107900046100914</v>
+        <v>-0.01265328352667528</v>
       </c>
       <c r="E7">
-        <v>0.06521329403316094</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.01250100568315987</v>
+      </c>
+      <c r="F7">
+        <v>0.006092092612998407</v>
+      </c>
+      <c r="G7">
+        <v>0.07604848514870972</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-8.634779231567581e-05</v>
+        <v>0.00137567498092263</v>
       </c>
       <c r="C8">
-        <v>0.009072846088773187</v>
+        <v>0.01579173861896687</v>
       </c>
       <c r="D8">
-        <v>0.01888057860764838</v>
+        <v>-0.003908814182726535</v>
       </c>
       <c r="E8">
-        <v>0.00212631788657039</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.01800877847620771</v>
+      </c>
+      <c r="F8">
+        <v>0.01174552079752291</v>
+      </c>
+      <c r="G8">
+        <v>0.02550759431890836</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01473294604527647</v>
+        <v>-0.02848349604082883</v>
       </c>
       <c r="C9">
-        <v>-0.01565774206397578</v>
+        <v>0.04332734107520547</v>
       </c>
       <c r="D9">
-        <v>0.0475757496671051</v>
+        <v>-0.01593127993776475</v>
       </c>
       <c r="E9">
-        <v>-0.002395921737070358</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01295637795772502</v>
+      </c>
+      <c r="F9">
+        <v>0.01689875241343713</v>
+      </c>
+      <c r="G9">
+        <v>0.03665519391384158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.00788042049847754</v>
+        <v>-0.08941514295931563</v>
       </c>
       <c r="C10">
-        <v>-0.1420081044563286</v>
+        <v>-0.184217638318811</v>
       </c>
       <c r="D10">
-        <v>-0.1293722295483364</v>
+        <v>0.01862150219975279</v>
       </c>
       <c r="E10">
-        <v>0.02681123787914582</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01751018991612951</v>
+      </c>
+      <c r="F10">
+        <v>-0.01470604200762668</v>
+      </c>
+      <c r="G10">
+        <v>0.04061929208430743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0001943883939863509</v>
+        <v>-0.03552192124376121</v>
       </c>
       <c r="C11">
-        <v>-0.006067972128416603</v>
+        <v>0.05375760769288661</v>
       </c>
       <c r="D11">
-        <v>0.04515924090582264</v>
+        <v>-0.0017936655281315</v>
       </c>
       <c r="E11">
-        <v>-0.01538748203534607</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.003685147936183187</v>
+      </c>
+      <c r="F11">
+        <v>0.02108586207021444</v>
+      </c>
+      <c r="G11">
+        <v>0.01906225728597511</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.005543752060034787</v>
+        <v>-0.03263334719824071</v>
       </c>
       <c r="C12">
-        <v>-0.01485680178545432</v>
+        <v>0.04549408473273965</v>
       </c>
       <c r="D12">
-        <v>0.04713208030640682</v>
+        <v>-0.005791930258972068</v>
       </c>
       <c r="E12">
-        <v>-0.008421593536388567</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.00582872601932051</v>
+      </c>
+      <c r="F12">
+        <v>0.005664553367980768</v>
+      </c>
+      <c r="G12">
+        <v>0.02254709126308652</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.0212042254441293</v>
+        <v>-0.01281460948752504</v>
       </c>
       <c r="C13">
-        <v>-0.01402772409817095</v>
+        <v>0.03111594583867947</v>
       </c>
       <c r="D13">
-        <v>0.01289233535178756</v>
+        <v>-0.02484983871718888</v>
       </c>
       <c r="E13">
-        <v>-0.009240266409419063</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.02739658616187656</v>
+      </c>
+      <c r="F13">
+        <v>0.01007197588969887</v>
+      </c>
+      <c r="G13">
+        <v>0.03167292445629576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.006872888295663698</v>
+        <v>-0.008724164734090569</v>
       </c>
       <c r="C14">
-        <v>-0.01234540787042153</v>
+        <v>0.0263903075947956</v>
       </c>
       <c r="D14">
-        <v>0.01450395063601427</v>
+        <v>-0.008446199088234798</v>
       </c>
       <c r="E14">
-        <v>0.01019055074323118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.005149991272574787</v>
+      </c>
+      <c r="F14">
+        <v>-0.001791802816803969</v>
+      </c>
+      <c r="G14">
+        <v>0.03809671367955522</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.0007062431225760417</v>
+        <v>-0.03210560356186759</v>
       </c>
       <c r="C16">
-        <v>-0.01183158241458447</v>
+        <v>0.04431839373735943</v>
       </c>
       <c r="D16">
-        <v>0.05091338839004855</v>
+        <v>-0.00138405786684635</v>
       </c>
       <c r="E16">
-        <v>-0.01073525055390223</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.004033387113750006</v>
+      </c>
+      <c r="F16">
+        <v>0.005997816048339646</v>
+      </c>
+      <c r="G16">
+        <v>0.02209090657899694</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01243241953284231</v>
+        <v>-0.02946657857587172</v>
       </c>
       <c r="C19">
-        <v>-0.02076166142488081</v>
+        <v>0.05329902393971378</v>
       </c>
       <c r="D19">
-        <v>0.03170430532923112</v>
+        <v>-0.01596783219847008</v>
       </c>
       <c r="E19">
-        <v>-0.002376434934358878</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.05043063221301959</v>
+      </c>
+      <c r="F19">
+        <v>0.02627140959369715</v>
+      </c>
+      <c r="G19">
+        <v>0.04210740934781475</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01003389548916461</v>
+        <v>-0.01206974327475278</v>
       </c>
       <c r="C20">
-        <v>-0.002636454370209103</v>
+        <v>0.03518661369065194</v>
       </c>
       <c r="D20">
-        <v>0.01419739539069202</v>
+        <v>-0.0132778084716463</v>
       </c>
       <c r="E20">
-        <v>0.001417288521942841</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02349912492938215</v>
+      </c>
+      <c r="F20">
+        <v>-0.001236779826330136</v>
+      </c>
+      <c r="G20">
+        <v>0.03567544578459347</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01337600268617893</v>
+        <v>-0.01470913125340759</v>
       </c>
       <c r="C21">
-        <v>-0.03264117199912527</v>
+        <v>0.03383257724167479</v>
       </c>
       <c r="D21">
-        <v>0.01604957663583056</v>
+        <v>-0.01626859073661071</v>
       </c>
       <c r="E21">
-        <v>0.01861946865808085</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03428645080175254</v>
+      </c>
+      <c r="F21">
+        <v>0.007535868540367026</v>
+      </c>
+      <c r="G21">
+        <v>0.05847993206334975</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.004655323642993283</v>
+        <v>-0.02646401155639634</v>
       </c>
       <c r="C24">
-        <v>-0.006899934223294141</v>
+        <v>0.04702442008114322</v>
       </c>
       <c r="D24">
-        <v>0.0461225496831918</v>
+        <v>-0.006574926043524545</v>
       </c>
       <c r="E24">
-        <v>-0.01080599447554298</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.001899094069759884</v>
+      </c>
+      <c r="F24">
+        <v>0.01814886841611601</v>
+      </c>
+      <c r="G24">
+        <v>0.02131363191893545</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01092465698745311</v>
+        <v>-0.04352509821881635</v>
       </c>
       <c r="C25">
-        <v>-0.02318929648276009</v>
+        <v>0.05417268173051414</v>
       </c>
       <c r="D25">
-        <v>0.04460776604967168</v>
+        <v>-0.01055042360046208</v>
       </c>
       <c r="E25">
-        <v>-0.009964676992644981</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.008832080617584389</v>
+      </c>
+      <c r="F25">
+        <v>0.01334487660039794</v>
+      </c>
+      <c r="G25">
+        <v>0.02680775654332697</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02277116629882581</v>
+        <v>-0.009525787703696532</v>
       </c>
       <c r="C26">
-        <v>-0.007706898927722439</v>
+        <v>0.009627638737938692</v>
       </c>
       <c r="D26">
-        <v>-0.003350080149130134</v>
+        <v>-0.02376956681628786</v>
       </c>
       <c r="E26">
-        <v>0.007853496918404257</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.009853283089442055</v>
+      </c>
+      <c r="F26">
+        <v>2.108786282488157e-05</v>
+      </c>
+      <c r="G26">
+        <v>0.02809202925684772</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.02459895999502592</v>
+        <v>-0.1149414488968427</v>
       </c>
       <c r="C28">
-        <v>-0.2108398718887556</v>
+        <v>-0.2273111575231189</v>
       </c>
       <c r="D28">
-        <v>-0.1852048016282418</v>
+        <v>0.009687837035950693</v>
       </c>
       <c r="E28">
-        <v>0.03848157166842475</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.007979395494579869</v>
+      </c>
+      <c r="F28">
+        <v>-0.008441294368257782</v>
+      </c>
+      <c r="G28">
+        <v>0.05769762825596599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.007188267405092553</v>
+        <v>-0.01367299971477976</v>
       </c>
       <c r="C29">
-        <v>-0.01836971779302821</v>
+        <v>0.02055920199689759</v>
       </c>
       <c r="D29">
-        <v>0.01266613709691976</v>
+        <v>-0.007171458256666448</v>
       </c>
       <c r="E29">
-        <v>0.004942586156867245</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.00573181376767331</v>
+      </c>
+      <c r="F29">
+        <v>-0.01191480058172775</v>
+      </c>
+      <c r="G29">
+        <v>0.02821496487540593</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.02398461952414396</v>
+        <v>-0.04195950636939178</v>
       </c>
       <c r="C30">
-        <v>-0.0109088649765325</v>
+        <v>0.07071967444347042</v>
       </c>
       <c r="D30">
-        <v>0.06333071173786131</v>
+        <v>-0.02737353537413995</v>
       </c>
       <c r="E30">
-        <v>-0.0701050412229879</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.03033984066376551</v>
+      </c>
+      <c r="F30">
+        <v>0.0410376562094443</v>
+      </c>
+      <c r="G30">
+        <v>0.003088790334699114</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.006466958853258448</v>
+        <v>-0.04554570104815039</v>
       </c>
       <c r="C31">
-        <v>-0.04547001780548682</v>
+        <v>0.03167706721479296</v>
       </c>
       <c r="D31">
-        <v>0.0371351147737403</v>
+        <v>-0.003003680579772911</v>
       </c>
       <c r="E31">
-        <v>0.0006601427420219328</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.01031876839745301</v>
+      </c>
+      <c r="F31">
+        <v>-0.03890450828772895</v>
+      </c>
+      <c r="G31">
+        <v>0.02704216850343762</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.007186442171689449</v>
+        <v>-0.006379048844339572</v>
       </c>
       <c r="C32">
-        <v>-0.01203829697676109</v>
+        <v>0.03269453423491936</v>
       </c>
       <c r="D32">
-        <v>0.01215204474580614</v>
+        <v>0.004341133595751771</v>
       </c>
       <c r="E32">
-        <v>0.02115396681447961</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.02029247334561045</v>
+      </c>
+      <c r="F32">
+        <v>0.06459308591911316</v>
+      </c>
+      <c r="G32">
+        <v>0.04924017987734122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.01199077551475848</v>
+        <v>-0.02826652615029042</v>
       </c>
       <c r="C33">
-        <v>-0.02374027237854022</v>
+        <v>0.04967541785426717</v>
       </c>
       <c r="D33">
-        <v>0.02251797258325716</v>
+        <v>-0.01428214437629514</v>
       </c>
       <c r="E33">
-        <v>-0.02845945601384282</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02483824849440974</v>
+      </c>
+      <c r="F33">
+        <v>0.01860937353093108</v>
+      </c>
+      <c r="G33">
+        <v>0.02798302617904369</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.005217416945818479</v>
+        <v>-0.04510003071922508</v>
       </c>
       <c r="C34">
-        <v>-0.01837882580938912</v>
+        <v>0.05514163158996366</v>
       </c>
       <c r="D34">
-        <v>0.04951109245405928</v>
+        <v>0.005438783405501703</v>
       </c>
       <c r="E34">
-        <v>-0.001727898579572189</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.007777037097037507</v>
+      </c>
+      <c r="F34">
+        <v>0.02251486069143691</v>
+      </c>
+      <c r="G34">
+        <v>0.03297314105533776</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01154244988143354</v>
+        <v>-0.01143201442583884</v>
       </c>
       <c r="C36">
-        <v>-0.01817913031109811</v>
+        <v>0.007302396051314083</v>
       </c>
       <c r="D36">
-        <v>0.001521754334905897</v>
+        <v>-0.01130895806903127</v>
       </c>
       <c r="E36">
-        <v>0.0009059068778530684</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.002081005969712368</v>
+      </c>
+      <c r="F36">
+        <v>-0.003099660779264291</v>
+      </c>
+      <c r="G36">
+        <v>0.02237014069882796</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>0.006346820564823739</v>
+        <v>-0.03368823432752648</v>
       </c>
       <c r="C38">
-        <v>-0.02767470798370574</v>
+        <v>0.02619127489385357</v>
       </c>
       <c r="D38">
-        <v>0.02497597037858695</v>
+        <v>0.007941800294270234</v>
       </c>
       <c r="E38">
-        <v>-0.003815805996275453</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.003810817823997736</v>
+      </c>
+      <c r="F38">
+        <v>-0.002090919298163663</v>
+      </c>
+      <c r="G38">
+        <v>0.029631535731754</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.006048008181193143</v>
+        <v>-0.03276546881087899</v>
       </c>
       <c r="C39">
-        <v>0.01496849391599022</v>
+        <v>0.0819707834948678</v>
       </c>
       <c r="D39">
-        <v>0.09687601209065019</v>
+        <v>-0.01206050705957083</v>
       </c>
       <c r="E39">
-        <v>-0.0205509613850801</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02133446145582856</v>
+      </c>
+      <c r="F39">
+        <v>0.03593464825790041</v>
+      </c>
+      <c r="G39">
+        <v>0.02404077618482074</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01075388564197701</v>
+        <v>-0.02102103659462151</v>
       </c>
       <c r="C40">
-        <v>-0.0160551180009622</v>
+        <v>0.03024375486653106</v>
       </c>
       <c r="D40">
-        <v>0.04118607841697693</v>
+        <v>-0.01312963440562492</v>
       </c>
       <c r="E40">
-        <v>-0.01694762993744297</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.02249988441642941</v>
+      </c>
+      <c r="F40">
+        <v>0.01304489987925997</v>
+      </c>
+      <c r="G40">
+        <v>0.02310967922483731</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.004857312518164701</v>
+        <v>-0.01212903287299986</v>
       </c>
       <c r="C41">
-        <v>-0.01854363014701545</v>
+        <v>-0.0009452543109069731</v>
       </c>
       <c r="D41">
-        <v>-0.008240491554249387</v>
+        <v>-0.003531834983493017</v>
       </c>
       <c r="E41">
-        <v>0.002693048495752212</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.003327329739809454</v>
+      </c>
+      <c r="F41">
+        <v>0.0003777370140361862</v>
+      </c>
+      <c r="G41">
+        <v>0.01383553648453095</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.0909244848035683</v>
+        <v>-0.0213112177110889</v>
       </c>
       <c r="C42">
-        <v>-0.009133290326694039</v>
+        <v>0.0494768872291244</v>
       </c>
       <c r="D42">
-        <v>0.2193689673621661</v>
+        <v>-0.0981162190552483</v>
       </c>
       <c r="E42">
-        <v>-0.2771724340499613</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.04358422270040679</v>
+      </c>
+      <c r="F42">
+        <v>-0.06579672769594783</v>
+      </c>
+      <c r="G42">
+        <v>-0.1801462714316308</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.005706098386567498</v>
+        <v>-0.0282362761067114</v>
       </c>
       <c r="C43">
-        <v>-0.02202088326877039</v>
+        <v>0.008523812366212032</v>
       </c>
       <c r="D43">
-        <v>-0.01228631839084133</v>
+        <v>-0.003774576098661549</v>
       </c>
       <c r="E43">
-        <v>-0.001032554322370398</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.004292960818219248</v>
+      </c>
+      <c r="F43">
+        <v>-0.00194043030413436</v>
+      </c>
+      <c r="G43">
+        <v>0.01988357761921294</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.003242983641026311</v>
+        <v>-0.01654960815504417</v>
       </c>
       <c r="C44">
-        <v>0.001100222664401298</v>
+        <v>0.04739193993107377</v>
       </c>
       <c r="D44">
-        <v>0.02830718738883731</v>
+        <v>-0.006580939583554776</v>
       </c>
       <c r="E44">
-        <v>0.0003233397617634497</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01701353840610741</v>
+      </c>
+      <c r="F44">
+        <v>0.01678314045614514</v>
+      </c>
+      <c r="G44">
+        <v>0.03546732274007466</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01041375400806555</v>
+        <v>-0.005335871546427181</v>
       </c>
       <c r="C46">
-        <v>-0.01605795815666137</v>
+        <v>0.0170922454131462</v>
       </c>
       <c r="D46">
-        <v>0.01572862409894907</v>
+        <v>-0.01166246940810818</v>
       </c>
       <c r="E46">
-        <v>-0.003946360812578712</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.0002363566048468316</v>
+      </c>
+      <c r="F46">
+        <v>-0.0153287927631912</v>
+      </c>
+      <c r="G46">
+        <v>0.02595135877372366</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.0002004477107218498</v>
+        <v>-0.07405851199219364</v>
       </c>
       <c r="C47">
-        <v>-0.06023251894939567</v>
+        <v>0.06289625309497911</v>
       </c>
       <c r="D47">
-        <v>0.04553711956655191</v>
+        <v>0.005319396113625899</v>
       </c>
       <c r="E47">
-        <v>-0.01061357290969105</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01905663464278575</v>
+      </c>
+      <c r="F47">
+        <v>-0.06289090077518983</v>
+      </c>
+      <c r="G47">
+        <v>0.02479576833325475</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.002310489359538394</v>
+        <v>-0.01973840199272564</v>
       </c>
       <c r="C48">
-        <v>-0.02371180151642412</v>
+        <v>0.01041008387004227</v>
       </c>
       <c r="D48">
-        <v>0.01020924155509008</v>
+        <v>-0.0008901985331586188</v>
       </c>
       <c r="E48">
-        <v>-0.002304718788528669</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.003048106835566337</v>
+      </c>
+      <c r="F48">
+        <v>-0.01459069477352144</v>
+      </c>
+      <c r="G48">
+        <v>0.02600698072230205</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.001684621173616033</v>
+        <v>-0.07968432868196605</v>
       </c>
       <c r="C50">
-        <v>-0.05142212509205359</v>
+        <v>0.06537707877039092</v>
       </c>
       <c r="D50">
-        <v>0.05997845295799453</v>
+        <v>0.004131191974186089</v>
       </c>
       <c r="E50">
-        <v>0.01396463843989629</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01953740258605395</v>
+      </c>
+      <c r="F50">
+        <v>-0.05630811504089232</v>
+      </c>
+      <c r="G50">
+        <v>0.04504566188919278</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.006793463848368141</v>
+        <v>-0.01236388530781239</v>
       </c>
       <c r="C51">
-        <v>-0.01682862013930447</v>
+        <v>0.02825182152441025</v>
       </c>
       <c r="D51">
-        <v>-0.01259592589466583</v>
+        <v>-0.008989205571101905</v>
       </c>
       <c r="E51">
-        <v>0.01174388747104705</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.01192061759163799</v>
+      </c>
+      <c r="F51">
+        <v>0.02701800264599898</v>
+      </c>
+      <c r="G51">
+        <v>0.04794780923594645</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.003185404044584584</v>
+        <v>-0.09534812763788547</v>
       </c>
       <c r="C53">
-        <v>-0.08543445286390589</v>
+        <v>0.078884767444117</v>
       </c>
       <c r="D53">
-        <v>0.09871608419887774</v>
+        <v>0.005857869765735527</v>
       </c>
       <c r="E53">
-        <v>-0.01170152806311495</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.04398433213442726</v>
+      </c>
+      <c r="F53">
+        <v>-0.06450308441789285</v>
+      </c>
+      <c r="G53">
+        <v>0.02357928339989077</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.001519656039210081</v>
+        <v>-0.03021834118915033</v>
       </c>
       <c r="C54">
-        <v>-0.03877454135707526</v>
+        <v>0.006620053152322926</v>
       </c>
       <c r="D54">
-        <v>-0.008274591617562534</v>
+        <v>0.003570095340024194</v>
       </c>
       <c r="E54">
-        <v>0.01316771898430266</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.002899227789442732</v>
+      </c>
+      <c r="F54">
+        <v>-0.007491713169687659</v>
+      </c>
+      <c r="G54">
+        <v>0.03325504050628818</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.0007924171897252742</v>
+        <v>-0.07333821624200085</v>
       </c>
       <c r="C55">
-        <v>-0.05973476170366543</v>
+        <v>0.07283970663915737</v>
       </c>
       <c r="D55">
-        <v>0.08709968315156798</v>
+        <v>0.004880178256363688</v>
       </c>
       <c r="E55">
-        <v>-0.01973809763098686</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.03390788372810396</v>
+      </c>
+      <c r="F55">
+        <v>-0.06059710732355243</v>
+      </c>
+      <c r="G55">
+        <v>0.01016626328346365</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>3.697821695520729e-05</v>
+        <v>-0.1458741635858722</v>
       </c>
       <c r="C56">
-        <v>-0.1082875202871642</v>
+        <v>0.1012012771304903</v>
       </c>
       <c r="D56">
-        <v>0.1313469137105542</v>
+        <v>0.01417727450476609</v>
       </c>
       <c r="E56">
-        <v>-0.02822244757242156</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.04440316669858187</v>
+      </c>
+      <c r="F56">
+        <v>-0.1017156802327126</v>
+      </c>
+      <c r="G56">
+        <v>0.0008041819921244755</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.02251734526621095</v>
+        <v>-0.01208573922667909</v>
       </c>
       <c r="C57">
-        <v>-0.01324651650849893</v>
+        <v>0.01140002736146021</v>
       </c>
       <c r="D57">
-        <v>0.04171803998756286</v>
+        <v>-0.02371212065194652</v>
       </c>
       <c r="E57">
-        <v>-0.01144856621101491</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.03007324688917253</v>
+      </c>
+      <c r="F57">
+        <v>0.01215649388578038</v>
+      </c>
+      <c r="G57">
+        <v>0.02069491819541027</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.006102473033158968</v>
+        <v>-0.06966736794772094</v>
       </c>
       <c r="C58">
-        <v>-0.03697304793000978</v>
+        <v>0.06009179099092012</v>
       </c>
       <c r="D58">
-        <v>0.06608712464132241</v>
+        <v>-0.02003330603450954</v>
       </c>
       <c r="E58">
-        <v>-0.1593767251562299</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9223181233899443</v>
+      </c>
+      <c r="F58">
+        <v>-0.3023540921922477</v>
+      </c>
+      <c r="G58">
+        <v>0.02938653828231796</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.02137825961150602</v>
+        <v>-0.1511116924496349</v>
       </c>
       <c r="C59">
-        <v>-0.2244268756405429</v>
+        <v>-0.2116323446737186</v>
       </c>
       <c r="D59">
-        <v>-0.1869762653837542</v>
+        <v>0.0161669781592209</v>
       </c>
       <c r="E59">
-        <v>0.01293320759088535</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.01522220360727112</v>
+      </c>
+      <c r="F59">
+        <v>0.009289655755905806</v>
+      </c>
+      <c r="G59">
+        <v>0.02122804966155273</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.02809819394935672</v>
+        <v>-0.2916597832999757</v>
       </c>
       <c r="C60">
-        <v>-0.163167484593203</v>
+        <v>0.0901817383828374</v>
       </c>
       <c r="D60">
-        <v>0.08737517263148757</v>
+        <v>-0.009408909898843855</v>
       </c>
       <c r="E60">
-        <v>-0.0643329298318349</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.03912645304977704</v>
+      </c>
+      <c r="F60">
+        <v>0.3807068847960247</v>
+      </c>
+      <c r="G60">
+        <v>-0.09213180420130597</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.002909938977810703</v>
+        <v>-0.03362958088607468</v>
       </c>
       <c r="C61">
-        <v>-0.009141550887188626</v>
+        <v>0.0632891865645224</v>
       </c>
       <c r="D61">
-        <v>0.0670871976623398</v>
+        <v>-0.00531173394909511</v>
       </c>
       <c r="E61">
-        <v>-0.01459209536274488</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.01201153169983954</v>
+      </c>
+      <c r="F61">
+        <v>0.02000524631904368</v>
+      </c>
+      <c r="G61">
+        <v>0.0231202038003207</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.007206032279160676</v>
+        <v>-0.01451402488484275</v>
       </c>
       <c r="C63">
-        <v>-0.01065543353536781</v>
+        <v>0.02661784332473355</v>
       </c>
       <c r="D63">
-        <v>0.01231518034965237</v>
+        <v>-0.007835324333122907</v>
       </c>
       <c r="E63">
-        <v>0.004404549458686735</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.007594598520616769</v>
+      </c>
+      <c r="F63">
+        <v>-0.01211401245055529</v>
+      </c>
+      <c r="G63">
+        <v>0.0325822564175698</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.006474231574126748</v>
+        <v>-0.04839949713903572</v>
       </c>
       <c r="C64">
-        <v>-0.03227562496477187</v>
+        <v>0.03720359584500613</v>
       </c>
       <c r="D64">
-        <v>0.06372576856193563</v>
+        <v>-0.004819344236644137</v>
       </c>
       <c r="E64">
-        <v>-0.01818872173691053</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.007348574223288017</v>
+      </c>
+      <c r="F64">
+        <v>0.004761046765638888</v>
+      </c>
+      <c r="G64">
+        <v>0.01998835392259892</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.01765400795562194</v>
+        <v>-0.08167469613826084</v>
       </c>
       <c r="C65">
-        <v>-0.03163486139577797</v>
+        <v>0.06543878767271707</v>
       </c>
       <c r="D65">
-        <v>0.09565059697525206</v>
+        <v>-0.01539078526784622</v>
       </c>
       <c r="E65">
-        <v>-0.01456431478583385</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.009564808653514077</v>
+      </c>
+      <c r="F65">
+        <v>0.04032736185586527</v>
+      </c>
+      <c r="G65">
+        <v>0.009979406918637471</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.005576603077110651</v>
+        <v>-0.05409344306900565</v>
       </c>
       <c r="C66">
-        <v>0.005051822273197467</v>
+        <v>0.1149053569429661</v>
       </c>
       <c r="D66">
-        <v>0.1167794132307806</v>
+        <v>-0.01150764507665217</v>
       </c>
       <c r="E66">
-        <v>-0.0406563255734241</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02318436375930226</v>
+      </c>
+      <c r="F66">
+        <v>0.04354297365981646</v>
+      </c>
+      <c r="G66">
+        <v>0.01400555643940985</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.001588446570632976</v>
+        <v>-0.05704391663718193</v>
       </c>
       <c r="C67">
-        <v>-0.04614395473684264</v>
+        <v>0.03056513721599075</v>
       </c>
       <c r="D67">
-        <v>0.02652502968315376</v>
+        <v>0.006392538981849481</v>
       </c>
       <c r="E67">
-        <v>-0.006518090829651634</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003039236444646259</v>
+      </c>
+      <c r="F67">
+        <v>-0.003670235478237755</v>
+      </c>
+      <c r="G67">
+        <v>0.02812247450859641</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.03814573858567662</v>
+        <v>-0.1355973289883447</v>
       </c>
       <c r="C68">
-        <v>-0.1893684579191513</v>
+        <v>-0.2721729427407931</v>
       </c>
       <c r="D68">
-        <v>-0.1794101439337069</v>
+        <v>-0.001589280389483008</v>
       </c>
       <c r="E68">
-        <v>0.0155097441197147</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.01637327566535894</v>
+      </c>
+      <c r="F68">
+        <v>-0.01861635259926815</v>
+      </c>
+      <c r="G68">
+        <v>0.02079216742559449</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.003576835098424823</v>
+        <v>-0.07883803629091496</v>
       </c>
       <c r="C69">
-        <v>-0.04856413101832051</v>
+        <v>0.06476470736535407</v>
       </c>
       <c r="D69">
-        <v>0.05232397331393131</v>
+        <v>0.009364628346123888</v>
       </c>
       <c r="E69">
-        <v>-0.006282503481448281</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.03494744805060124</v>
+      </c>
+      <c r="F69">
+        <v>-0.04218890161659256</v>
+      </c>
+      <c r="G69">
+        <v>0.02554485055316973</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.02640055520205908</v>
+        <v>-0.1297364216600412</v>
       </c>
       <c r="C71">
-        <v>-0.1681363569912901</v>
+        <v>-0.2281585796120901</v>
       </c>
       <c r="D71">
-        <v>-0.1571400661189964</v>
+        <v>0.007202404216694182</v>
       </c>
       <c r="E71">
-        <v>0.02291795733431651</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.02527900559918969</v>
+      </c>
+      <c r="F71">
+        <v>-0.0196192498869436</v>
+      </c>
+      <c r="G71">
+        <v>0.03384448881765219</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.002417979996809825</v>
+        <v>-0.08375939868452452</v>
       </c>
       <c r="C72">
-        <v>-0.06412396308077234</v>
+        <v>0.07540219632063033</v>
       </c>
       <c r="D72">
-        <v>0.1413152310728168</v>
+        <v>0.008575940350023341</v>
       </c>
       <c r="E72">
-        <v>-0.05344004145713185</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.01005624518870516</v>
+      </c>
+      <c r="F72">
+        <v>0.04011671661561752</v>
+      </c>
+      <c r="G72">
+        <v>0.001186514738426938</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.04127861588204718</v>
+        <v>-0.4020150880136765</v>
       </c>
       <c r="C73">
-        <v>-0.1949650823196544</v>
+        <v>0.1047235356433217</v>
       </c>
       <c r="D73">
-        <v>0.1495910866872866</v>
+        <v>-0.01412201885145358</v>
       </c>
       <c r="E73">
-        <v>-0.1391382800521282</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.1075825036933257</v>
+      </c>
+      <c r="F73">
+        <v>0.5366002332185679</v>
+      </c>
+      <c r="G73">
+        <v>-0.1489059434190939</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.001136964484120353</v>
+        <v>-0.117163316170382</v>
       </c>
       <c r="C74">
-        <v>-0.09858447039481411</v>
+        <v>0.1174668755304347</v>
       </c>
       <c r="D74">
-        <v>0.1268460983842611</v>
+        <v>0.01043421216924657</v>
       </c>
       <c r="E74">
-        <v>-0.03473557207624176</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.04047433161758388</v>
+      </c>
+      <c r="F74">
+        <v>-0.07050213602327039</v>
+      </c>
+      <c r="G74">
+        <v>0.02298386343167811</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.0009418396201880827</v>
+        <v>-0.2614349802026847</v>
       </c>
       <c r="C75">
-        <v>-0.2277133594916183</v>
+        <v>0.1467035469265715</v>
       </c>
       <c r="D75">
-        <v>0.2179786247566367</v>
+        <v>0.03220565894195634</v>
       </c>
       <c r="E75">
-        <v>-0.06623096066724618</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.08628416843224408</v>
+      </c>
+      <c r="F75">
+        <v>-0.2157941787856635</v>
+      </c>
+      <c r="G75">
+        <v>-0.03377149992504127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>0.005648775190895649</v>
+        <v>-0.1372223884771599</v>
       </c>
       <c r="C76">
-        <v>-0.1747808666047058</v>
+        <v>0.1213558853215641</v>
       </c>
       <c r="D76">
-        <v>0.2027519071716735</v>
+        <v>0.02208744358593647</v>
       </c>
       <c r="E76">
-        <v>-0.03270837760363744</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0765617671672659</v>
+      </c>
+      <c r="F76">
+        <v>-0.1294669632421264</v>
+      </c>
+      <c r="G76">
+        <v>0.01376041460589772</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.01197503380123808</v>
+        <v>-0.06376697378050923</v>
       </c>
       <c r="C77">
-        <v>-0.01391736292181317</v>
+        <v>0.06095253262295931</v>
       </c>
       <c r="D77">
-        <v>0.06089846591008121</v>
+        <v>-0.01230249175619405</v>
       </c>
       <c r="E77">
-        <v>-0.01301665134596499</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04846753500732384</v>
+      </c>
+      <c r="F77">
+        <v>0.01098610915966392</v>
+      </c>
+      <c r="G77">
+        <v>0.0518004151490868</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.004643646618740837</v>
+        <v>-0.04098654053590811</v>
       </c>
       <c r="C78">
-        <v>-0.01810870764162742</v>
+        <v>0.05044246864461222</v>
       </c>
       <c r="D78">
-        <v>0.06260271868890109</v>
+        <v>-0.005501387360996176</v>
       </c>
       <c r="E78">
-        <v>-0.01341524256628179</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02406390567728684</v>
+      </c>
+      <c r="F78">
+        <v>0.03481197434455717</v>
+      </c>
+      <c r="G78">
+        <v>0.03470534646096309</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.01434848711500546</v>
+        <v>-0.06116320059992734</v>
       </c>
       <c r="C80">
-        <v>-0.1582887036077394</v>
+        <v>0.06765337970130174</v>
       </c>
       <c r="D80">
-        <v>0.2829949198926392</v>
+        <v>-0.01201602584081843</v>
       </c>
       <c r="E80">
-        <v>0.8940330675106313</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.04664459897473139</v>
+      </c>
+      <c r="F80">
+        <v>0.07571349682556242</v>
+      </c>
+      <c r="G80">
+        <v>0.9160220366988281</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.0003138690882091823</v>
+        <v>-0.1437280636031508</v>
       </c>
       <c r="C81">
-        <v>-0.1457179484134936</v>
+        <v>0.0930861239457884</v>
       </c>
       <c r="D81">
-        <v>0.1436445326164968</v>
+        <v>0.01620813777059931</v>
       </c>
       <c r="E81">
-        <v>-0.03322356456148978</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.05178917633116098</v>
+      </c>
+      <c r="F81">
+        <v>-0.1342823405166917</v>
+      </c>
+      <c r="G81">
+        <v>0.01671515167667356</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.05331090835965541</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03665554173517748</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002927874377913438</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.01867203956136177</v>
+      </c>
+      <c r="F82">
+        <v>-0.005842880955118096</v>
+      </c>
+      <c r="G82">
+        <v>-0.007472244661920256</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.006469615238662609</v>
+        <v>-0.02893387194598208</v>
       </c>
       <c r="C83">
-        <v>-0.02818753513639648</v>
+        <v>0.02073620820788715</v>
       </c>
       <c r="D83">
-        <v>0.02564060877807528</v>
+        <v>-0.005236626486103988</v>
       </c>
       <c r="E83">
-        <v>-0.01119380107163125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02746096160893667</v>
+      </c>
+      <c r="F83">
+        <v>0.01390370217770898</v>
+      </c>
+      <c r="G83">
+        <v>0.02257532646662178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.008436120231458606</v>
+        <v>-0.2378876605432502</v>
       </c>
       <c r="C85">
-        <v>-0.1852165052217343</v>
+        <v>0.1471850702338225</v>
       </c>
       <c r="D85">
-        <v>0.2256699033933205</v>
+        <v>0.02091917736812558</v>
       </c>
       <c r="E85">
-        <v>-0.07407293095670876</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1339372274645327</v>
+      </c>
+      <c r="F85">
+        <v>-0.1901842634508624</v>
+      </c>
+      <c r="G85">
+        <v>-0.05932100332244485</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.005468390265291538</v>
+        <v>-0.01192794484674851</v>
       </c>
       <c r="C86">
-        <v>-0.009996516168935614</v>
+        <v>0.0212560963046782</v>
       </c>
       <c r="D86">
-        <v>0.008450602331868926</v>
+        <v>-0.009749972003666263</v>
       </c>
       <c r="E86">
-        <v>-0.02189760726363019</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.03899192010848603</v>
+      </c>
+      <c r="F86">
+        <v>0.01163999795655163</v>
+      </c>
+      <c r="G86">
+        <v>0.04834073213078328</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.006542209953185037</v>
+        <v>-0.01472726657642253</v>
       </c>
       <c r="C87">
-        <v>-0.004531353476408694</v>
+        <v>0.02765873362918054</v>
       </c>
       <c r="D87">
-        <v>0.0379579683716192</v>
+        <v>-0.01217153670438422</v>
       </c>
       <c r="E87">
-        <v>-0.01088480476211857</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08482502394214708</v>
+      </c>
+      <c r="F87">
+        <v>0.04303976130082776</v>
+      </c>
+      <c r="G87">
+        <v>0.04353647901431918</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.02571183380219992</v>
+        <v>-0.08892683480511121</v>
       </c>
       <c r="C88">
-        <v>-0.04416677565181168</v>
+        <v>0.06160269147240193</v>
       </c>
       <c r="D88">
-        <v>0.0229733217355793</v>
+        <v>-0.02153530685422091</v>
       </c>
       <c r="E88">
-        <v>-0.007321909049266711</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01708632184220819</v>
+      </c>
+      <c r="F88">
+        <v>-0.01704903792765218</v>
+      </c>
+      <c r="G88">
+        <v>0.02465734919109856</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.05110078225916943</v>
+        <v>-0.2203751065132723</v>
       </c>
       <c r="C89">
-        <v>-0.3273002779228432</v>
+        <v>-0.3691051373293576</v>
       </c>
       <c r="D89">
-        <v>-0.2855390568546904</v>
+        <v>0.008098165338186542</v>
       </c>
       <c r="E89">
-        <v>0.0132796609391064</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.01797302763849815</v>
+      </c>
+      <c r="F89">
+        <v>-0.03335870307432955</v>
+      </c>
+      <c r="G89">
+        <v>0.03385782047377967</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.0382714203988147</v>
+        <v>-0.1889610960332934</v>
       </c>
       <c r="C90">
-        <v>-0.2449875617698676</v>
+        <v>-0.3364228947628365</v>
       </c>
       <c r="D90">
-        <v>-0.2608283356711709</v>
+        <v>0.01201569232035069</v>
       </c>
       <c r="E90">
-        <v>0.009666143822658643</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.006642944422013322</v>
+      </c>
+      <c r="F90">
+        <v>-0.0464591883105793</v>
+      </c>
+      <c r="G90">
+        <v>-0.00377484299282558</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.002207795724852431</v>
+        <v>-0.2069871961958449</v>
       </c>
       <c r="C91">
-        <v>-0.196330876431601</v>
+        <v>0.1364743711237377</v>
       </c>
       <c r="D91">
-        <v>0.214523409295459</v>
+        <v>0.0255566703072236</v>
       </c>
       <c r="E91">
-        <v>-0.05625477190395643</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.09844910584938066</v>
+      </c>
+      <c r="F91">
+        <v>-0.1819417221858962</v>
+      </c>
+      <c r="G91">
+        <v>0.002105234772491208</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.004178013662435726</v>
+        <v>-0.2079638199134947</v>
       </c>
       <c r="C92">
-        <v>-0.3544157472510534</v>
+        <v>-0.267596846679208</v>
       </c>
       <c r="D92">
-        <v>-0.1572898937248784</v>
+        <v>0.05377377553566819</v>
       </c>
       <c r="E92">
-        <v>-0.007613883524231892</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.011297541828306</v>
+      </c>
+      <c r="F92">
+        <v>-0.123739370434383</v>
+      </c>
+      <c r="G92">
+        <v>0.06725084837006592</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.03585757942171108</v>
+        <v>-0.2153879373443885</v>
       </c>
       <c r="C93">
-        <v>-0.2881827046754212</v>
+        <v>-0.3334814989628375</v>
       </c>
       <c r="D93">
-        <v>-0.261467134628161</v>
+        <v>0.01895002686618354</v>
       </c>
       <c r="E93">
-        <v>-0.01558913362304508</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.003153556130164607</v>
+      </c>
+      <c r="F93">
+        <v>-0.02844043568431716</v>
+      </c>
+      <c r="G93">
+        <v>-0.002716592774498205</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.01911685777472535</v>
+        <v>-0.280926675650607</v>
       </c>
       <c r="C94">
-        <v>-0.2431702533369279</v>
+        <v>0.1611676704101777</v>
       </c>
       <c r="D94">
-        <v>0.202465958965724</v>
+        <v>0.01470860906122757</v>
       </c>
       <c r="E94">
-        <v>-0.1066764741123362</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.1448986435748769</v>
+      </c>
+      <c r="F94">
+        <v>-0.3857952661527216</v>
+      </c>
+      <c r="G94">
+        <v>-0.1173205252214699</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.006665851544815746</v>
+        <v>-0.08443679295359614</v>
       </c>
       <c r="C95">
-        <v>-0.04457994871472774</v>
+        <v>0.07646541078554353</v>
       </c>
       <c r="D95">
-        <v>0.0617666037587038</v>
+        <v>0.006759612703795738</v>
       </c>
       <c r="E95">
-        <v>-0.1142419086033857</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.09715728982774498</v>
+      </c>
+      <c r="F95">
+        <v>0.1517355913076609</v>
+      </c>
+      <c r="G95">
+        <v>-0.04091434425794958</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.0037356197250635</v>
+        <v>-0.208262687087065</v>
       </c>
       <c r="C98">
-        <v>-0.1606520352852585</v>
+        <v>0.04741585780715558</v>
       </c>
       <c r="D98">
-        <v>0.1104300079102921</v>
+        <v>0.01589830308080965</v>
       </c>
       <c r="E98">
-        <v>-0.08454307162301511</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.08660927420472607</v>
+      </c>
+      <c r="F98">
+        <v>0.2429160643045655</v>
+      </c>
+      <c r="G98">
+        <v>-0.04116288839834533</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.007028962216733893</v>
+        <v>-0.01351622753348319</v>
       </c>
       <c r="C101">
-        <v>-0.01907585753022875</v>
+        <v>0.02066303758338147</v>
       </c>
       <c r="D101">
-        <v>0.01313926194720892</v>
+        <v>-0.006957046812374396</v>
       </c>
       <c r="E101">
-        <v>0.00498377335119452</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.006378450718125434</v>
+      </c>
+      <c r="F101">
+        <v>-0.0137466002554577</v>
+      </c>
+      <c r="G101">
+        <v>0.0282915153793752</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.01296144528931766</v>
+        <v>-0.1245817595345102</v>
       </c>
       <c r="C102">
-        <v>-0.1147415608377518</v>
+        <v>0.08181616980280659</v>
       </c>
       <c r="D102">
-        <v>0.1138043345084277</v>
+        <v>0.000148415342439058</v>
       </c>
       <c r="E102">
-        <v>-0.03406763548671872</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.04262243430676299</v>
+      </c>
+      <c r="F102">
+        <v>-0.06042928186338681</v>
+      </c>
+      <c r="G102">
+        <v>-0.00630106730721178</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>-0.002016500048346352</v>
+        <v>-0.004246905472687731</v>
       </c>
       <c r="C103">
-        <v>-0.01654443632431784</v>
+        <v>0.005544545701181578</v>
       </c>
       <c r="D103">
-        <v>0.02804198419893445</v>
+        <v>-0.0006849188845708559</v>
       </c>
       <c r="E103">
-        <v>0.01015312605170786</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-7.312778868789804e-05</v>
+      </c>
+      <c r="F103">
+        <v>-0.008336787800888094</v>
+      </c>
+      <c r="G103">
+        <v>0.01853121465421115</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.9863172953505668</v>
+        <v>-0.03740592980378041</v>
       </c>
       <c r="C104">
-        <v>0.09190796066735384</v>
+        <v>-0.04420876014375972</v>
       </c>
       <c r="D104">
-        <v>0.001274577640710314</v>
+        <v>-0.9864141110251984</v>
       </c>
       <c r="E104">
-        <v>0.02382731405608558</v>
+        <v>0.04776166545461098</v>
+      </c>
+      <c r="F104">
+        <v>-0.040227708452136</v>
+      </c>
+      <c r="G104">
+        <v>-0.003705037278359308</v>
       </c>
     </row>
   </sheetData>
